--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/41_İzmir_2025.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/41_İzmir_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05E0A5E4-F98F-4E93-B90F-F5EC317AF0C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF1A9C4B-853B-4F61-837C-5199C19EC20B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="681" xr2:uid="{FBA0A0BE-3A57-4A67-9699-4F5573AE40A7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="681" xr2:uid="{B36D8E88-FD81-4D63-B21E-7775D1E4B737}"/>
   </bookViews>
   <sheets>
     <sheet name="HAZİRAN" sheetId="140" r:id="rId1"/>
@@ -793,13 +793,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{9B03B7AB-91B4-485A-B558-1576994674FD}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{77D79A6F-0345-41A6-8FD5-9B008DE17288}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{E68B415E-CD01-45C7-8720-6478D1DD6240}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{D1A2958A-B0CA-4A89-8D74-794954988853}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{E4F1998A-F878-49AC-B25A-BFA6DF2369EB}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{31714144-5115-4CA3-96A7-366E58D8ABED}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{2A6C7F69-C0DA-4958-B8B3-E7C11EE6001B}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{902ABA2B-435D-42F7-8617-CBBE00B791F6}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{7E431A60-BDCF-4DEF-BDAE-A3DA22554E82}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{95BB093D-2CFD-46E5-A8CF-7CEF71F6A9DB}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{88CB1B43-A96E-4213-9E5F-8DE03CC8E933}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{735BF63F-F8D7-4407-999C-877BE1CB16EE}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{5DC4B52E-187E-4311-AAAF-DBBB83D44E69}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{5B473C31-3DA8-4D13-A397-584F2DDE3FCE}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1169,7 +1169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41ABE1E5-2253-4721-ADA0-5FD2A63B1441}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AEBED41-C3A4-41E3-BD38-E1178322E847}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2510,7 +2510,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C4EFC60-AAC3-4E9D-BB96-4A69F31C17F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA6220D7-88B6-4DFC-872A-C48B44466AE1}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3855,7 +3855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F245FC29-DF30-4675-B4B4-B1FEFBA61136}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0517DE8D-FE6F-4460-8AAC-68BF1DE22BF5}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5200,7 +5200,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51339D5-A087-4EF8-BE3E-2C697E55950D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B84121A0-75A5-42CB-A2A0-20090087CAE4}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6547,7 +6547,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C91845FF-3F7D-4C30-9BF2-9FC379A95360}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFFF9BAC-17C6-47E9-9CA0-D8922AC34F3A}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7888,7 +7888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B63A68-4E35-4E67-8EAF-F53ECAE551FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{350E7AA8-4673-49A9-B77F-973DFC890B69}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
